--- a/tests/data/radial.xlsx
+++ b/tests/data/radial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barberia Juan Luis\Desktop\Software\TNEP.py\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0535937-EF65-405F-B1F4-462F6F3AA188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762222BC-EFC8-4559-96E0-5D193FD842E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Bus k</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Costo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>NL</t>
   </si>
 </sst>
 </file>
@@ -416,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H2"/>
+  <dimension ref="B1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,41 +438,47 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>0.1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>5</v>
       </c>
     </row>
